--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\AdventOfCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE5A6A95-3783-4C42-B4ED-88525F347A61}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{77C93E28-8550-407A-BD74-FAECE6795C90}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{5E9D4944-A63E-410D-AB67-9AA93D5A23B6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" activeTab="1" xr2:uid="{5E9D4944-A63E-410D-AB67-9AA93D5A23B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>relbase = 1</t>
   </si>
@@ -47,7 +47,64 @@
     <t>store at 63</t>
   </si>
   <si>
-    <t>1007,63,34463338</t>
+    <t>1007,63,34463338,63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if </t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>1005,63,53</t>
+  </si>
+  <si>
+    <t>0 != 0</t>
+  </si>
+  <si>
+    <t>do not jump</t>
+  </si>
+  <si>
+    <t>1101,3,0,1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add </t>
+  </si>
+  <si>
+    <t>3+0</t>
+  </si>
+  <si>
+    <t>store at 1000</t>
+  </si>
+  <si>
+    <t>,109,988,</t>
+  </si>
+  <si>
+    <t>adjust base</t>
+  </si>
+  <si>
+    <t>,209,12</t>
+  </si>
+  <si>
+    <t>988 to make  988</t>
+  </si>
+  <si>
+    <t>add 3</t>
+  </si>
+  <si>
+    <t>,9,1000</t>
+  </si>
+  <si>
+    <t>,209,6</t>
+  </si>
+  <si>
+    <t>209,3</t>
+  </si>
+  <si>
+    <t>203,0</t>
+  </si>
+  <si>
+    <t>esult: 21107,1202,2105,2108,2106,21101,2106,2107,21102,1208,1206,21101,21102,4053446991</t>
   </si>
 </sst>
 </file>
@@ -91,9 +148,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,54 +755,240 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FC0BC1-AE3D-45AB-A241-FA351DEFFF07}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>1102</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>34463338</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>34463338</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>1187721666102240</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>1007</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1187721666102240</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>34463338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
